--- a/sigla_v2.xlsx
+++ b/sigla_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BankRio\OneDrive - BankRio Investimentos e Consultoria Ltda - ME\Área de Trabalho\Projeto simulador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29672A91-1B45-4BFD-84CA-D45AFE512BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCC1F74-D097-4FCF-A92D-DAE55B46CBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24255" yWindow="4245" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>BENJAMIN DUCK</t>
   </si>
   <si>
-    <t>DANA SKRUGER</t>
-  </si>
-  <si>
     <t>ESTEFANO RAPIERA</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>SAMUEL EDVALDO XAVIER</t>
+  </si>
+  <si>
+    <t>JONAS SAMPAIO</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +524,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
